--- a/dados/erros.xlsx
+++ b/dados/erros.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q1_cQ1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -777,7 +777,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q1_cQ1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q1_cQ1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -3515,7 +3515,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q1_cQ1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -4003,7 +4003,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q1_cQ1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q1_cQ1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q1_cQ1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -7511,7 +7511,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q1_cQ1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -9568,7 +9568,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q1_cQ1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -10794,7 +10794,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q1_cQ1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -16124,7 +16124,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q1_cQ1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">

--- a/dados/erros.xlsx
+++ b/dados/erros.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q1_cQ1</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Q1_cQ1</t>
+          <t>cQ1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -606,12 +606,12 @@
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q3_cQ7</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Q5a_cQ4</t>
+          <t>Q5a_cQ4a</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q1_cQ1</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -777,7 +777,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Q1_cQ1</t>
+          <t>cQ1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -902,12 +902,12 @@
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q3_cQ7</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Q5a_cQ4</t>
+          <t>Q5a_cQ4a</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q1_cQ1</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Q1_cQ1</t>
+          <t>cQ1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -1495,12 +1495,12 @@
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q3_cQ7</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Q5a_cQ4</t>
+          <t>Q5a_cQ4a</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
@@ -3500,7 +3500,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q1_cQ1</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -3515,7 +3515,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Q1_cQ1</t>
+          <t>cQ1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -3640,12 +3640,12 @@
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q3_cQ7</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Q5a_cQ4</t>
+          <t>Q5a_cQ4a</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
@@ -3988,7 +3988,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q1_cQ1</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -4003,7 +4003,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Q1_cQ1</t>
+          <t>cQ1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -4128,12 +4128,12 @@
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q3_cQ7</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Q5a_cQ4</t>
+          <t>Q5a_cQ4a</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
@@ -4391,7 +4391,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q1_cQ1</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Q1_cQ1</t>
+          <t>cQ1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -4531,12 +4531,12 @@
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q3_cQ7</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Q5a_cQ4</t>
+          <t>Q5a_cQ4a</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q1_cQ1</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Q1_cQ1</t>
+          <t>cQ1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -5112,12 +5112,12 @@
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q3_cQ7</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Q5a_cQ4</t>
+          <t>Q5a_cQ4a</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
@@ -7496,7 +7496,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q1_cQ1</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -7511,7 +7511,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Q1_cQ1</t>
+          <t>cQ1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -7636,12 +7636,12 @@
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q3_cQ7</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Q5a_cQ4</t>
+          <t>Q5a_cQ4a</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
@@ -9553,7 +9553,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q1_cQ1</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -9568,7 +9568,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Q1_cQ1</t>
+          <t>cQ1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -9693,12 +9693,12 @@
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q3_cQ7</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Q5a_cQ4</t>
+          <t>Q5a_cQ4a</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
@@ -10779,7 +10779,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q1_cQ1</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -10794,7 +10794,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Q1_cQ1</t>
+          <t>cQ1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -10919,12 +10919,12 @@
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q3_cQ7</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Q5a_cQ4</t>
+          <t>Q5a_cQ4a</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
@@ -16109,7 +16109,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q1_cQ1</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -16124,7 +16124,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Q1_cQ1</t>
+          <t>cQ1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -16249,12 +16249,12 @@
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q3_cQ7</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Q5a_cQ4</t>
+          <t>Q5a_cQ4a</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
